--- a/src/Excel/entregable1/InactividadManualCuentaAhorros.xlsx
+++ b/src/Excel/entregable1/InactividadManualCuentaAhorros.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AB0FA1-2356-44AE-BA76-5992B84CC38E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A739C8-B6C9-4F07-A926-0967AC6DFA0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="1960" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InactividadManualCuentaAhorros" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>usuario</t>
   </si>
@@ -36,15 +36,9 @@
     <t>cuenta</t>
   </si>
   <si>
-    <t>SCISNEROSC1</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
-    <t>1010388828</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -54,41 +48,16 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>5 mar. 2023, 20:28:09</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 12:15:35</t>
-  </si>
-  <si>
-    <t>7 mar. 2023, 08:45:15</t>
-  </si>
-  <si>
-    <t>7 mar. 2023, 08:47:27</t>
-  </si>
-  <si>
-    <t>7 mar. 2023, 09:09:42</t>
-  </si>
-  <si>
-    <t>7 mar. 2023, 09:10:21</t>
-  </si>
-  <si>
-    <t>7 mar. 2023, 09:16:21</t>
-  </si>
-  <si>
-    <t>7 mar. 2023, 09:20:06</t>
+    <t>gmalca</t>
+  </si>
+  <si>
+    <t>1007751474</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,16 +387,16 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -441,33 +410,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/InactividadManualCuentaAhorros.xlsx
+++ b/src/Excel/entregable1/InactividadManualCuentaAhorros.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A739C8-B6C9-4F07-A926-0967AC6DFA0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC26846-32EB-4A6A-8EB9-116FC0147F8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>usuario</t>
   </si>
@@ -51,13 +51,32 @@
     <t>gmalca</t>
   </si>
   <si>
-    <t>1007751474</t>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>30 jun. 2023, 15:07:23</t>
+  </si>
+  <si>
+    <t>1010826124</t>
+  </si>
+  <si>
+    <t>usuarioAp</t>
+  </si>
+  <si>
+    <t>SCISNEROSS1</t>
+  </si>
+  <si>
+    <t>30 jun. 2023, 15:12:56</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,22 +403,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.81640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -409,17 +429,20 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -427,7 +450,19 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/InactividadManualCuentaAhorros.xlsx
+++ b/src/Excel/entregable1/InactividadManualCuentaAhorros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC26846-32EB-4A6A-8EB9-116FC0147F8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C55D4864-74F6-48FB-BCF8-44CFDF1D6C38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>usuario</t>
   </si>
@@ -57,12 +57,6 @@
     <t/>
   </si>
   <si>
-    <t>30 jun. 2023, 15:07:23</t>
-  </si>
-  <si>
-    <t>1010826124</t>
-  </si>
-  <si>
     <t>usuarioAp</t>
   </si>
   <si>
@@ -70,6 +64,18 @@
   </si>
   <si>
     <t>30 jun. 2023, 15:12:56</t>
+  </si>
+  <si>
+    <t>1010826248</t>
+  </si>
+  <si>
+    <t>AAACT23215408L8WZ</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>3 ago. 2023, 20:36:21</t>
   </si>
 </sst>
 </file>
@@ -406,7 +412,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -430,7 +436,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -450,19 +456,19 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
